--- a/moduli_iscrizione/modulo iscrizione_mignagola.xlsx
+++ b/moduli_iscrizione/modulo iscrizione_mignagola.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\moduli_iscrizione\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Società</t>
   </si>
@@ -283,11 +288,17 @@
   <si>
     <t>Iljana</t>
   </si>
+  <si>
+    <t>SINGH</t>
+  </si>
+  <si>
+    <t>Harman</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +456,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,17 +746,17 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="4" customWidth="1"/>
     <col min="2" max="3" width="25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="41.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.75" customHeight="1">
+    <row r="2" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -785,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.75" customHeight="1">
+    <row r="3" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f>IF(B3&lt;&gt;"",$A$2,"")</f>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -806,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.75" customHeight="1">
+    <row r="4" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A67" si="0">IF(B4&lt;&gt;"",$A$2,"")</f>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -827,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.75" customHeight="1">
+    <row r="5" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -848,7 +859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.75" customHeight="1">
+    <row r="6" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -869,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.75" customHeight="1">
+    <row r="7" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -890,7 +901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.75" customHeight="1">
+    <row r="8" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -911,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.75" customHeight="1">
+    <row r="9" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -932,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.75" customHeight="1">
+    <row r="10" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -953,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.75" customHeight="1">
+    <row r="11" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -974,7 +985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.75" customHeight="1">
+    <row r="12" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -995,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.75" customHeight="1">
+    <row r="13" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1016,7 +1027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.75" customHeight="1">
+    <row r="14" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1037,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.75" customHeight="1">
+    <row r="15" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1058,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.75" customHeight="1">
+    <row r="16" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1079,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.75" customHeight="1">
+    <row r="17" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1100,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.75" customHeight="1">
+    <row r="18" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1121,7 +1132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.75" customHeight="1">
+    <row r="19" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD SCUOLA KARATE MIGNAGOLA</v>
@@ -1142,18 +1153,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.75" customHeight="1">
+    <row r="20" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.75" customHeight="1">
+        <v>ASD SCUOLA KARATE MIGNAGOLA</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1164,7 +1185,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="19.75" customHeight="1">
+    <row r="22" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1175,7 +1196,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="19.75" customHeight="1">
+    <row r="23" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1186,7 +1207,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="19.75" customHeight="1">
+    <row r="24" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1197,7 +1218,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="19.75" customHeight="1">
+    <row r="25" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1208,7 +1229,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="19.75" customHeight="1">
+    <row r="26" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1219,7 +1240,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="19.75" customHeight="1">
+    <row r="27" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1230,7 +1251,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="19.75" customHeight="1">
+    <row r="28" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1241,7 +1262,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="19.75" customHeight="1">
+    <row r="29" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1252,7 +1273,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="19.75" customHeight="1">
+    <row r="30" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1263,7 +1284,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="19.75" customHeight="1">
+    <row r="31" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1274,7 +1295,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="19.75" customHeight="1">
+    <row r="32" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1285,7 +1306,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="19.75" customHeight="1">
+    <row r="33" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1296,7 +1317,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="19.75" customHeight="1">
+    <row r="34" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1307,7 +1328,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="19.75" customHeight="1">
+    <row r="35" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1318,7 +1339,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="19.75" customHeight="1">
+    <row r="36" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1329,7 +1350,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="19.75" customHeight="1">
+    <row r="37" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1340,7 +1361,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="19.75" customHeight="1">
+    <row r="38" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1351,7 +1372,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="19.75" customHeight="1">
+    <row r="39" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1362,7 +1383,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="19.75" customHeight="1">
+    <row r="40" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1373,7 +1394,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="19.75" customHeight="1">
+    <row r="41" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1384,7 +1405,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="19.75" customHeight="1">
+    <row r="42" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1395,7 +1416,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="19.75" customHeight="1">
+    <row r="43" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1406,7 +1427,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="19.75" customHeight="1">
+    <row r="44" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1417,7 +1438,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="19.75" customHeight="1">
+    <row r="45" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1428,7 +1449,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="19.75" customHeight="1">
+    <row r="46" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1439,7 +1460,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="19.75" customHeight="1">
+    <row r="47" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1450,7 +1471,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="19.75" customHeight="1">
+    <row r="48" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1461,7 +1482,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="19.75" customHeight="1">
+    <row r="49" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1472,7 +1493,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="19.75" customHeight="1">
+    <row r="50" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1483,7 +1504,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="19.75" customHeight="1">
+    <row r="51" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1494,7 +1515,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="19.75" customHeight="1">
+    <row r="52" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1505,7 +1526,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="19.75" customHeight="1">
+    <row r="53" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1516,7 +1537,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="19.75" customHeight="1">
+    <row r="54" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1527,7 +1548,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="19.75" customHeight="1">
+    <row r="55" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1538,7 +1559,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="19.75" customHeight="1">
+    <row r="56" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1549,7 +1570,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="19.75" customHeight="1">
+    <row r="57" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1560,7 +1581,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="19.75" customHeight="1">
+    <row r="58" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1571,7 +1592,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="19.75" customHeight="1">
+    <row r="59" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1582,7 +1603,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="19.75" customHeight="1">
+    <row r="60" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1593,7 +1614,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="19.75" customHeight="1">
+    <row r="61" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1604,7 +1625,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="19.75" customHeight="1">
+    <row r="62" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1615,7 +1636,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="19.75" customHeight="1">
+    <row r="63" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1626,7 +1647,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="19.75" customHeight="1">
+    <row r="64" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1637,7 +1658,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="19.75" customHeight="1">
+    <row r="65" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1648,7 +1669,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="19.75" customHeight="1">
+    <row r="66" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1659,7 +1680,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="19.75" customHeight="1">
+    <row r="67" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1670,7 +1691,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="19.75" customHeight="1">
+    <row r="68" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
         <f t="shared" ref="A68:A131" si="1">IF(B68&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -1681,7 +1702,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="19.75" customHeight="1">
+    <row r="69" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1692,7 +1713,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="19.75" customHeight="1">
+    <row r="70" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1703,7 +1724,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="19.75" customHeight="1">
+    <row r="71" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1714,7 +1735,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="19.75" customHeight="1">
+    <row r="72" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1725,7 +1746,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="19.75" customHeight="1">
+    <row r="73" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1736,7 +1757,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="19.75" customHeight="1">
+    <row r="74" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1747,7 +1768,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="19.75" customHeight="1">
+    <row r="75" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1758,7 +1779,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="19.75" customHeight="1">
+    <row r="76" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1769,7 +1790,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="19.75" customHeight="1">
+    <row r="77" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1780,7 +1801,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="19.75" customHeight="1">
+    <row r="78" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1791,7 +1812,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="19.75" customHeight="1">
+    <row r="79" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1802,7 +1823,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="19.75" customHeight="1">
+    <row r="80" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1813,7 +1834,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="19.75" customHeight="1">
+    <row r="81" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1824,7 +1845,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="19.75" customHeight="1">
+    <row r="82" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1835,7 +1856,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="19.75" customHeight="1">
+    <row r="83" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1846,7 +1867,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="19.75" customHeight="1">
+    <row r="84" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1857,7 +1878,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="19.75" customHeight="1">
+    <row r="85" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1868,7 +1889,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="19.75" customHeight="1">
+    <row r="86" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1879,7 +1900,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="19.75" customHeight="1">
+    <row r="87" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1890,7 +1911,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="19.75" customHeight="1">
+    <row r="88" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1901,7 +1922,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="19.75" customHeight="1">
+    <row r="89" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1912,7 +1933,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="19.75" customHeight="1">
+    <row r="90" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1923,7 +1944,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="19.75" customHeight="1">
+    <row r="91" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1934,7 +1955,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" ht="19.75" customHeight="1">
+    <row r="92" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1945,7 +1966,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="19.75" customHeight="1">
+    <row r="93" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1956,7 +1977,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="19.75" customHeight="1">
+    <row r="94" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1967,7 +1988,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="19.75" customHeight="1">
+    <row r="95" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1978,7 +1999,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="19.75" customHeight="1">
+    <row r="96" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1989,7 +2010,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="19.75" customHeight="1">
+    <row r="97" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2000,7 +2021,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" ht="19.75" customHeight="1">
+    <row r="98" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2011,7 +2032,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="19.75" customHeight="1">
+    <row r="99" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2022,7 +2043,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="19.75" customHeight="1">
+    <row r="100" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2033,7 +2054,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="19.75" customHeight="1">
+    <row r="101" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2044,7 +2065,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="19.75" customHeight="1">
+    <row r="102" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2055,7 +2076,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="19.75" customHeight="1">
+    <row r="103" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2066,7 +2087,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="19.75" customHeight="1">
+    <row r="104" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2077,7 +2098,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="19.75" customHeight="1">
+    <row r="105" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2088,7 +2109,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="19.75" customHeight="1">
+    <row r="106" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2099,7 +2120,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="19.75" customHeight="1">
+    <row r="107" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2110,7 +2131,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="19.75" customHeight="1">
+    <row r="108" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2121,7 +2142,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="19.75" customHeight="1">
+    <row r="109" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2132,7 +2153,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" ht="19.75" customHeight="1">
+    <row r="110" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2143,7 +2164,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="19.75" customHeight="1">
+    <row r="111" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2154,7 +2175,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="19.75" customHeight="1">
+    <row r="112" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2165,7 +2186,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="19.75" customHeight="1">
+    <row r="113" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2176,7 +2197,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="19.75" customHeight="1">
+    <row r="114" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2187,7 +2208,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="19.75" customHeight="1">
+    <row r="115" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2198,7 +2219,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="19.75" customHeight="1">
+    <row r="116" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2209,7 +2230,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="19.75" customHeight="1">
+    <row r="117" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2220,7 +2241,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:6" ht="19.75" customHeight="1">
+    <row r="118" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2231,7 +2252,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="19.75" customHeight="1">
+    <row r="119" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2242,7 +2263,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="19.75" customHeight="1">
+    <row r="120" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2253,7 +2274,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="19.75" customHeight="1">
+    <row r="121" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2264,7 +2285,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" ht="19.75" customHeight="1">
+    <row r="122" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2275,7 +2296,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="19.75" customHeight="1">
+    <row r="123" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2286,7 +2307,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="19.75" customHeight="1">
+    <row r="124" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2297,7 +2318,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="19.75" customHeight="1">
+    <row r="125" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2308,7 +2329,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" ht="19.75" customHeight="1">
+    <row r="126" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2319,7 +2340,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6" ht="19.75" customHeight="1">
+    <row r="127" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2330,7 +2351,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" ht="19.75" customHeight="1">
+    <row r="128" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2341,7 +2362,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" ht="19.75" customHeight="1">
+    <row r="129" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2352,7 +2373,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" ht="19.75" customHeight="1">
+    <row r="130" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2363,7 +2384,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" ht="19.75" customHeight="1">
+    <row r="131" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2374,7 +2395,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" ht="19.75" customHeight="1">
+    <row r="132" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="str">
         <f t="shared" ref="A132:A195" si="2">IF(B132&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -2385,7 +2406,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" ht="19.75" customHeight="1">
+    <row r="133" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2396,7 +2417,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="19.75" customHeight="1">
+    <row r="134" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2407,7 +2428,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="19.75" customHeight="1">
+    <row r="135" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2418,7 +2439,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" ht="19.75" customHeight="1">
+    <row r="136" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2429,7 +2450,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" ht="19.75" customHeight="1">
+    <row r="137" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2440,7 +2461,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" ht="19.75" customHeight="1">
+    <row r="138" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2451,7 +2472,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" ht="19.75" customHeight="1">
+    <row r="139" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2462,7 +2483,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" ht="19.75" customHeight="1">
+    <row r="140" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2473,7 +2494,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="1:6" ht="19.75" customHeight="1">
+    <row r="141" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2484,7 +2505,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:6" ht="19.75" customHeight="1">
+    <row r="142" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2495,7 +2516,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6" ht="19.75" customHeight="1">
+    <row r="143" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2506,7 +2527,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:6" ht="19.75" customHeight="1">
+    <row r="144" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2517,7 +2538,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="19.75" customHeight="1">
+    <row r="145" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2528,7 +2549,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" ht="19.75" customHeight="1">
+    <row r="146" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2539,7 +2560,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6" ht="19.75" customHeight="1">
+    <row r="147" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2550,7 +2571,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" ht="19.75" customHeight="1">
+    <row r="148" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2561,7 +2582,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" ht="19.75" customHeight="1">
+    <row r="149" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2572,7 +2593,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" ht="19.75" customHeight="1">
+    <row r="150" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2583,7 +2604,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" ht="19.75" customHeight="1">
+    <row r="151" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2594,7 +2615,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:6" ht="19.75" customHeight="1">
+    <row r="152" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2605,7 +2626,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="1:6" ht="19.75" customHeight="1">
+    <row r="153" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2616,7 +2637,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6" ht="19.75" customHeight="1">
+    <row r="154" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2627,7 +2648,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6" ht="19.75" customHeight="1">
+    <row r="155" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2638,7 +2659,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" ht="19.75" customHeight="1">
+    <row r="156" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2649,7 +2670,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="1:6" ht="19.75" customHeight="1">
+    <row r="157" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2660,7 +2681,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" ht="19.75" customHeight="1">
+    <row r="158" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2671,7 +2692,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" ht="19.75" customHeight="1">
+    <row r="159" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2682,7 +2703,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="19.75" customHeight="1">
+    <row r="160" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2693,7 +2714,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="19.75" customHeight="1">
+    <row r="161" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2704,7 +2725,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" ht="19.75" customHeight="1">
+    <row r="162" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2715,7 +2736,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="19.75" customHeight="1">
+    <row r="163" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2726,7 +2747,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" ht="19.75" customHeight="1">
+    <row r="164" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2737,7 +2758,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" ht="19.75" customHeight="1">
+    <row r="165" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2748,7 +2769,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" ht="19.75" customHeight="1">
+    <row r="166" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2759,7 +2780,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="1:6" ht="19.75" customHeight="1">
+    <row r="167" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2770,7 +2791,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:6" ht="19.75" customHeight="1">
+    <row r="168" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2781,7 +2802,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" ht="19.75" customHeight="1">
+    <row r="169" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2792,7 +2813,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:6" ht="19.75" customHeight="1">
+    <row r="170" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2803,7 +2824,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6" ht="19.75" customHeight="1">
+    <row r="171" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2814,7 +2835,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" ht="19.75" customHeight="1">
+    <row r="172" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2825,7 +2846,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="1:6" ht="19.75" customHeight="1">
+    <row r="173" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2836,7 +2857,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" ht="19.75" customHeight="1">
+    <row r="174" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2847,7 +2868,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="1:6" ht="19.75" customHeight="1">
+    <row r="175" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2858,7 +2879,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:6" ht="19.75" customHeight="1">
+    <row r="176" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2869,7 +2890,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="19.75" customHeight="1">
+    <row r="177" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2880,7 +2901,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="1:6" ht="19.75" customHeight="1">
+    <row r="178" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2891,7 +2912,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" ht="19.75" customHeight="1">
+    <row r="179" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2902,7 +2923,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:6" ht="19.75" customHeight="1">
+    <row r="180" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2913,7 +2934,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" ht="19.75" customHeight="1">
+    <row r="181" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2924,7 +2945,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" ht="19.75" customHeight="1">
+    <row r="182" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2935,7 +2956,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="1:6" ht="19.75" customHeight="1">
+    <row r="183" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2946,7 +2967,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6" ht="19.75" customHeight="1">
+    <row r="184" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2957,7 +2978,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="1:6" ht="19.75" customHeight="1">
+    <row r="185" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2968,7 +2989,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="1:6" ht="19.75" customHeight="1">
+    <row r="186" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2979,7 +3000,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" ht="19.75" customHeight="1">
+    <row r="187" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2990,7 +3011,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="1:6" ht="19.75" customHeight="1">
+    <row r="188" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3001,7 +3022,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6" ht="19.75" customHeight="1">
+    <row r="189" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3012,7 +3033,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:6" ht="19.75" customHeight="1">
+    <row r="190" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3023,7 +3044,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:6" ht="19.75" customHeight="1">
+    <row r="191" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3034,7 +3055,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:6" ht="19.75" customHeight="1">
+    <row r="192" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3045,7 +3066,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" ht="19.75" customHeight="1">
+    <row r="193" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3056,7 +3077,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" ht="19.75" customHeight="1">
+    <row r="194" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3067,7 +3088,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="1:6" ht="19.75" customHeight="1">
+    <row r="195" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3078,7 +3099,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="1:6" ht="19.75" customHeight="1">
+    <row r="196" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="str">
         <f t="shared" ref="A196:A259" si="3">IF(B196&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -3089,7 +3110,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="19.75" customHeight="1">
+    <row r="197" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3100,7 +3121,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" ht="19.75" customHeight="1">
+    <row r="198" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3111,7 +3132,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="19.75" customHeight="1">
+    <row r="199" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3122,7 +3143,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:6" ht="19.75" customHeight="1">
+    <row r="200" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3133,7 +3154,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="1:6" ht="19.75" customHeight="1">
+    <row r="201" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3144,7 +3165,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="1:6" ht="19.75" customHeight="1">
+    <row r="202" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3155,7 +3176,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="19.75" customHeight="1">
+    <row r="203" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3166,7 +3187,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="1:6" ht="19.75" customHeight="1">
+    <row r="204" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3177,7 +3198,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" ht="19.75" customHeight="1">
+    <row r="205" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3188,7 +3209,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:6" ht="19.75" customHeight="1">
+    <row r="206" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3199,7 +3220,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="1:6" ht="19.75" customHeight="1">
+    <row r="207" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3210,7 +3231,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="19.75" customHeight="1">
+    <row r="208" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3221,7 +3242,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" ht="19.75" customHeight="1">
+    <row r="209" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3232,7 +3253,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:6" ht="19.75" customHeight="1">
+    <row r="210" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3243,7 +3264,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="1:6" ht="19.75" customHeight="1">
+    <row r="211" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3254,7 +3275,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:6" ht="19.75" customHeight="1">
+    <row r="212" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3265,7 +3286,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="1:6" ht="19.75" customHeight="1">
+    <row r="213" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3276,7 +3297,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" ht="19.75" customHeight="1">
+    <row r="214" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3287,7 +3308,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="1:6" ht="19.75" customHeight="1">
+    <row r="215" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3298,7 +3319,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="1:6" ht="19.75" customHeight="1">
+    <row r="216" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3309,7 +3330,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="1:6" ht="19.75" customHeight="1">
+    <row r="217" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3320,7 +3341,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:6" ht="19.75" customHeight="1">
+    <row r="218" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3331,7 +3352,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" ht="19.75" customHeight="1">
+    <row r="219" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3342,7 +3363,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:6" ht="19.75" customHeight="1">
+    <row r="220" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3353,7 +3374,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="1:6" ht="19.75" customHeight="1">
+    <row r="221" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3364,7 +3385,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" ht="19.75" customHeight="1">
+    <row r="222" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3375,7 +3396,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="1:6" ht="19.75" customHeight="1">
+    <row r="223" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3386,7 +3407,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="1:6" ht="19.75" customHeight="1">
+    <row r="224" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3397,7 +3418,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="1:6" ht="19.75" customHeight="1">
+    <row r="225" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3408,7 +3429,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="1:6" ht="19.75" customHeight="1">
+    <row r="226" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3419,7 +3440,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="1:6" ht="19.75" customHeight="1">
+    <row r="227" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3430,7 +3451,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:6" ht="19.75" customHeight="1">
+    <row r="228" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3441,7 +3462,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="1:6" ht="19.75" customHeight="1">
+    <row r="229" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3452,7 +3473,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" ht="19.75" customHeight="1">
+    <row r="230" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3463,7 +3484,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:6" ht="19.75" customHeight="1">
+    <row r="231" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3474,7 +3495,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="19.75" customHeight="1">
+    <row r="232" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3485,7 +3506,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="19.75" customHeight="1">
+    <row r="233" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3496,7 +3517,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="1:6" ht="19.75" customHeight="1">
+    <row r="234" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3507,7 +3528,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="1:6" ht="19.75" customHeight="1">
+    <row r="235" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3518,7 +3539,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:6" ht="19.75" customHeight="1">
+    <row r="236" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3529,7 +3550,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="1:6" ht="19.75" customHeight="1">
+    <row r="237" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3540,7 +3561,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" ht="19.75" customHeight="1">
+    <row r="238" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3551,7 +3572,7 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="1:6" ht="19.75" customHeight="1">
+    <row r="239" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3562,7 +3583,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="19.75" customHeight="1">
+    <row r="240" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3573,7 +3594,7 @@
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="1:6" ht="19.75" customHeight="1">
+    <row r="241" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3584,7 +3605,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:6" ht="19.75" customHeight="1">
+    <row r="242" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3595,7 +3616,7 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6" ht="19.75" customHeight="1">
+    <row r="243" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3606,7 +3627,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="1:6" ht="19.75" customHeight="1">
+    <row r="244" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3617,7 +3638,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="1:6" ht="19.75" customHeight="1">
+    <row r="245" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3628,7 +3649,7 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:6" ht="19.75" customHeight="1">
+    <row r="246" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3639,7 +3660,7 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:6" ht="19.75" customHeight="1">
+    <row r="247" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3650,7 +3671,7 @@
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" ht="19.75" customHeight="1">
+    <row r="248" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3661,7 +3682,7 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="1:6" ht="19.75" customHeight="1">
+    <row r="249" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3672,7 +3693,7 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="1:6" ht="19.75" customHeight="1">
+    <row r="250" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3683,7 +3704,7 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="1:6" ht="19.75" customHeight="1">
+    <row r="251" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3694,7 +3715,7 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="1:6" ht="19.75" customHeight="1">
+    <row r="252" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3705,7 +3726,7 @@
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="1:6" ht="19.75" customHeight="1">
+    <row r="253" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3716,7 +3737,7 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:6" ht="19.75" customHeight="1">
+    <row r="254" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3727,7 +3748,7 @@
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="1:6" ht="19.75" customHeight="1">
+    <row r="255" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3738,7 +3759,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="1:6" ht="19.75" customHeight="1">
+    <row r="256" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3749,7 +3770,7 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" ht="19.75" customHeight="1">
+    <row r="257" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3760,7 +3781,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:6" ht="19.75" customHeight="1">
+    <row r="258" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3771,7 +3792,7 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="1:6" ht="19.75" customHeight="1">
+    <row r="259" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3782,7 +3803,7 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:6" ht="19.75" customHeight="1">
+    <row r="260" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="str">
         <f t="shared" ref="A260:A323" si="4">IF(B260&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -3793,7 +3814,7 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="1:6" ht="19.75" customHeight="1">
+    <row r="261" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3804,7 +3825,7 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="1:6" ht="19.75" customHeight="1">
+    <row r="262" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3815,7 +3836,7 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="1:6" ht="19.75" customHeight="1">
+    <row r="263" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3826,7 +3847,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="1:6" ht="19.75" customHeight="1">
+    <row r="264" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3837,7 +3858,7 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="1:6" ht="19.75" customHeight="1">
+    <row r="265" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3848,7 +3869,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="1:6" ht="19.75" customHeight="1">
+    <row r="266" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3859,7 +3880,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="1:6" ht="19.75" customHeight="1">
+    <row r="267" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3870,7 +3891,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="1:6" ht="19.75" customHeight="1">
+    <row r="268" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3881,7 +3902,7 @@
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="1:6" ht="19.75" customHeight="1">
+    <row r="269" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3892,7 +3913,7 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="1:6" ht="19.75" customHeight="1">
+    <row r="270" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3903,7 +3924,7 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="1:6" ht="19.75" customHeight="1">
+    <row r="271" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3914,7 +3935,7 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:6" ht="19.75" customHeight="1">
+    <row r="272" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3925,7 +3946,7 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="1:6" ht="19.75" customHeight="1">
+    <row r="273" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3936,7 +3957,7 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:6" ht="19.75" customHeight="1">
+    <row r="274" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3947,7 +3968,7 @@
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="1:6" ht="19.75" customHeight="1">
+    <row r="275" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3958,7 +3979,7 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="1:6" ht="19.75" customHeight="1">
+    <row r="276" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3969,7 +3990,7 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="1:6" ht="19.75" customHeight="1">
+    <row r="277" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3980,7 +4001,7 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="1:6" ht="19.75" customHeight="1">
+    <row r="278" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3991,7 +4012,7 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="1:6" ht="19.75" customHeight="1">
+    <row r="279" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4002,7 +4023,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="1:6" ht="19.75" customHeight="1">
+    <row r="280" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4013,7 +4034,7 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="1:6" ht="19.75" customHeight="1">
+    <row r="281" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4024,7 +4045,7 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:6" ht="19.75" customHeight="1">
+    <row r="282" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4035,7 +4056,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="1:6" ht="19.75" customHeight="1">
+    <row r="283" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4046,7 +4067,7 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="1:6" ht="19.75" customHeight="1">
+    <row r="284" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4057,7 +4078,7 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="1:6" ht="19.75" customHeight="1">
+    <row r="285" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4068,7 +4089,7 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="1:6" ht="19.75" customHeight="1">
+    <row r="286" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4079,7 +4100,7 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="1:6" ht="19.75" customHeight="1">
+    <row r="287" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4090,7 +4111,7 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:6" ht="19.75" customHeight="1">
+    <row r="288" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4101,7 +4122,7 @@
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="1:6" ht="19.75" customHeight="1">
+    <row r="289" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4112,7 +4133,7 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="1:6" ht="19.75" customHeight="1">
+    <row r="290" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4123,7 +4144,7 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="1:6" ht="19.75" customHeight="1">
+    <row r="291" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4134,7 +4155,7 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="1:6" ht="19.75" customHeight="1">
+    <row r="292" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4145,7 +4166,7 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="1:6" ht="19.75" customHeight="1">
+    <row r="293" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4156,7 +4177,7 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="1:6" ht="19.75" customHeight="1">
+    <row r="294" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4167,7 +4188,7 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" spans="1:6" ht="19.75" customHeight="1">
+    <row r="295" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4178,7 +4199,7 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="1:6" ht="19.75" customHeight="1">
+    <row r="296" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4189,7 +4210,7 @@
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" spans="1:6" ht="19.75" customHeight="1">
+    <row r="297" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4200,7 +4221,7 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="1:6" ht="19.75" customHeight="1">
+    <row r="298" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4211,7 +4232,7 @@
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" spans="1:6" ht="19.75" customHeight="1">
+    <row r="299" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4222,7 +4243,7 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" spans="1:6" ht="19.75" customHeight="1">
+    <row r="300" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4233,7 +4254,7 @@
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="1:6" ht="19.75" customHeight="1">
+    <row r="301" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4244,7 +4265,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="1:6" ht="19.75" customHeight="1">
+    <row r="302" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4255,7 +4276,7 @@
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" spans="1:6" ht="19.75" customHeight="1">
+    <row r="303" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4266,7 +4287,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" spans="1:6" ht="19.75" customHeight="1">
+    <row r="304" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4277,7 +4298,7 @@
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305" spans="1:6" ht="19.75" customHeight="1">
+    <row r="305" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4288,7 +4309,7 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" spans="1:6" ht="19.75" customHeight="1">
+    <row r="306" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4299,7 +4320,7 @@
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" spans="1:6" ht="19.75" customHeight="1">
+    <row r="307" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4310,7 +4331,7 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="1:6" ht="19.75" customHeight="1">
+    <row r="308" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4321,7 +4342,7 @@
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" spans="1:6" ht="19.75" customHeight="1">
+    <row r="309" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4332,7 +4353,7 @@
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="1:6" ht="19.75" customHeight="1">
+    <row r="310" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4343,7 +4364,7 @@
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" spans="1:6" ht="19.75" customHeight="1">
+    <row r="311" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4354,7 +4375,7 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" spans="1:6" ht="19.75" customHeight="1">
+    <row r="312" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4365,7 +4386,7 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" spans="1:6" ht="19.75" customHeight="1">
+    <row r="313" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4376,7 +4397,7 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="1:6" ht="19.75" customHeight="1">
+    <row r="314" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4387,7 +4408,7 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315" spans="1:6" ht="19.75" customHeight="1">
+    <row r="315" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4398,7 +4419,7 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" spans="1:6" ht="19.75" customHeight="1">
+    <row r="316" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4409,7 +4430,7 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="1:6" ht="19.75" customHeight="1">
+    <row r="317" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4420,7 +4441,7 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" spans="1:6" ht="19.75" customHeight="1">
+    <row r="318" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4431,7 +4452,7 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" spans="1:6" ht="19.75" customHeight="1">
+    <row r="319" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4442,7 +4463,7 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" spans="1:6" ht="19.75" customHeight="1">
+    <row r="320" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4453,7 +4474,7 @@
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" spans="1:6" ht="19.75" customHeight="1">
+    <row r="321" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4464,7 +4485,7 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="1:6" ht="19.75" customHeight="1">
+    <row r="322" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4475,7 +4496,7 @@
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" spans="1:6" ht="19.75" customHeight="1">
+    <row r="323" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4486,7 +4507,7 @@
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" spans="1:6" ht="19.75" customHeight="1">
+    <row r="324" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="str">
         <f t="shared" ref="A324:A387" si="5">IF(B324&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -4497,7 +4518,7 @@
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" spans="1:6" ht="19.75" customHeight="1">
+    <row r="325" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4508,7 +4529,7 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="1:6" ht="19.75" customHeight="1">
+    <row r="326" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4519,7 +4540,7 @@
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" spans="1:6" ht="19.75" customHeight="1">
+    <row r="327" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4530,7 +4551,7 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" spans="1:6" ht="19.75" customHeight="1">
+    <row r="328" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4541,7 +4562,7 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" spans="1:6" ht="19.75" customHeight="1">
+    <row r="329" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4552,7 +4573,7 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" spans="1:6" ht="19.75" customHeight="1">
+    <row r="330" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4563,7 +4584,7 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" spans="1:6" ht="19.75" customHeight="1">
+    <row r="331" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4574,7 +4595,7 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" spans="1:6" ht="19.75" customHeight="1">
+    <row r="332" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4585,7 +4606,7 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="1:6" ht="19.75" customHeight="1">
+    <row r="333" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4596,7 +4617,7 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="1:6" ht="19.75" customHeight="1">
+    <row r="334" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4607,7 +4628,7 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" spans="1:6" ht="19.75" customHeight="1">
+    <row r="335" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4618,7 +4639,7 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:6" ht="19.75" customHeight="1">
+    <row r="336" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4629,7 +4650,7 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" spans="1:6" ht="19.75" customHeight="1">
+    <row r="337" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4640,7 +4661,7 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="1:6" ht="19.75" customHeight="1">
+    <row r="338" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4651,7 +4672,7 @@
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="1:6" ht="19.75" customHeight="1">
+    <row r="339" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4662,7 +4683,7 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="1:6" ht="19.75" customHeight="1">
+    <row r="340" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4673,7 +4694,7 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" spans="1:6" ht="19.75" customHeight="1">
+    <row r="341" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4684,7 +4705,7 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="1:6" ht="19.75" customHeight="1">
+    <row r="342" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4695,7 +4716,7 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" spans="1:6" ht="19.75" customHeight="1">
+    <row r="343" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4706,7 +4727,7 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="1:6" ht="19.75" customHeight="1">
+    <row r="344" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4717,7 +4738,7 @@
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="1:6" ht="19.75" customHeight="1">
+    <row r="345" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4728,7 +4749,7 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="1:6" ht="19.75" customHeight="1">
+    <row r="346" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4739,7 +4760,7 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" spans="1:6" ht="19.75" customHeight="1">
+    <row r="347" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4750,7 +4771,7 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="1:6" ht="19.75" customHeight="1">
+    <row r="348" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4761,7 +4782,7 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" spans="1:6" ht="19.75" customHeight="1">
+    <row r="349" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4772,7 +4793,7 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="1:6" ht="19.75" customHeight="1">
+    <row r="350" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4783,7 +4804,7 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="1:6" ht="19.75" customHeight="1">
+    <row r="351" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4794,7 +4815,7 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:6" ht="19.75" customHeight="1">
+    <row r="352" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4805,7 +4826,7 @@
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" spans="1:6" ht="19.75" customHeight="1">
+    <row r="353" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4816,7 +4837,7 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" spans="1:6" ht="19.75" customHeight="1">
+    <row r="354" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4827,7 +4848,7 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" spans="1:6" ht="19.75" customHeight="1">
+    <row r="355" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4838,7 +4859,7 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="1:6" ht="19.75" customHeight="1">
+    <row r="356" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4849,7 +4870,7 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" spans="1:6" ht="19.75" customHeight="1">
+    <row r="357" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4860,7 +4881,7 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="1:6" ht="19.75" customHeight="1">
+    <row r="358" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4871,7 +4892,7 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="1:6" ht="19.75" customHeight="1">
+    <row r="359" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4882,7 +4903,7 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="1:6" ht="19.75" customHeight="1">
+    <row r="360" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4893,7 +4914,7 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" spans="1:6" ht="19.75" customHeight="1">
+    <row r="361" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4904,7 +4925,7 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="1:6" ht="19.75" customHeight="1">
+    <row r="362" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4915,7 +4936,7 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" spans="1:6" ht="19.75" customHeight="1">
+    <row r="363" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4926,7 +4947,7 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="1:6" ht="19.75" customHeight="1">
+    <row r="364" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4937,7 +4958,7 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" spans="1:6" ht="19.75" customHeight="1">
+    <row r="365" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4948,7 +4969,7 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:6" ht="19.75" customHeight="1">
+    <row r="366" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4959,7 +4980,7 @@
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="1:6" ht="19.75" customHeight="1">
+    <row r="367" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4970,7 +4991,7 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="1:6" ht="19.75" customHeight="1">
+    <row r="368" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4981,7 +5002,7 @@
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="1:6" ht="19.75" customHeight="1">
+    <row r="369" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4992,7 +5013,7 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="1:6" ht="19.75" customHeight="1">
+    <row r="370" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5003,7 +5024,7 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" spans="1:6" ht="19.75" customHeight="1">
+    <row r="371" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5014,7 +5035,7 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="1:6" ht="19.75" customHeight="1">
+    <row r="372" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5025,7 +5046,7 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" spans="1:6" ht="19.75" customHeight="1">
+    <row r="373" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5036,7 +5057,7 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="1:6" ht="19.75" customHeight="1">
+    <row r="374" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5047,7 +5068,7 @@
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="1:6" ht="19.75" customHeight="1">
+    <row r="375" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5058,7 +5079,7 @@
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="1:6" ht="19.75" customHeight="1">
+    <row r="376" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5069,7 +5090,7 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="1:6" ht="19.75" customHeight="1">
+    <row r="377" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5080,7 +5101,7 @@
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="1:6" ht="19.75" customHeight="1">
+    <row r="378" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5091,7 +5112,7 @@
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" spans="1:6" ht="19.75" customHeight="1">
+    <row r="379" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5102,7 +5123,7 @@
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" spans="1:6" ht="19.75" customHeight="1">
+    <row r="380" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5113,7 +5134,7 @@
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" spans="1:6" ht="19.75" customHeight="1">
+    <row r="381" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5124,7 +5145,7 @@
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="1:6" ht="19.75" customHeight="1">
+    <row r="382" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5135,7 +5156,7 @@
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" spans="1:6" ht="19.75" customHeight="1">
+    <row r="383" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5146,7 +5167,7 @@
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="1:6" ht="19.75" customHeight="1">
+    <row r="384" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5157,7 +5178,7 @@
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="1:6" ht="19.75" customHeight="1">
+    <row r="385" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5168,7 +5189,7 @@
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="1:6" ht="19.75" customHeight="1">
+    <row r="386" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5179,7 +5200,7 @@
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" spans="1:6" ht="19.75" customHeight="1">
+    <row r="387" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5190,7 +5211,7 @@
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="1:6" ht="19.75" customHeight="1">
+    <row r="388" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="str">
         <f t="shared" ref="A388:A451" si="6">IF(B388&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -5201,7 +5222,7 @@
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" spans="1:6" ht="19.75" customHeight="1">
+    <row r="389" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5212,7 +5233,7 @@
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="1:6" ht="19.75" customHeight="1">
+    <row r="390" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5223,7 +5244,7 @@
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" spans="1:6" ht="19.75" customHeight="1">
+    <row r="391" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5234,7 +5255,7 @@
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" spans="1:6" ht="19.75" customHeight="1">
+    <row r="392" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5245,7 +5266,7 @@
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" spans="1:6" ht="19.75" customHeight="1">
+    <row r="393" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5256,7 +5277,7 @@
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" spans="1:6" ht="19.75" customHeight="1">
+    <row r="394" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5267,7 +5288,7 @@
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" spans="1:6" ht="19.75" customHeight="1">
+    <row r="395" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5278,7 +5299,7 @@
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="1:6" ht="19.75" customHeight="1">
+    <row r="396" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5289,7 +5310,7 @@
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" spans="1:6" ht="19.75" customHeight="1">
+    <row r="397" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5300,7 +5321,7 @@
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="1:6" ht="19.75" customHeight="1">
+    <row r="398" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5311,7 +5332,7 @@
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" spans="1:6" ht="19.75" customHeight="1">
+    <row r="399" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5322,7 +5343,7 @@
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="1:6" ht="19.75" customHeight="1">
+    <row r="400" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5333,7 +5354,7 @@
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" spans="1:6" ht="19.75" customHeight="1">
+    <row r="401" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5344,7 +5365,7 @@
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="1:6" ht="19.75" customHeight="1">
+    <row r="402" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5355,7 +5376,7 @@
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" spans="1:6" ht="19.75" customHeight="1">
+    <row r="403" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5366,7 +5387,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" ht="19.75" customHeight="1">
+    <row r="404" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5377,7 +5398,7 @@
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="1:6" ht="19.75" customHeight="1">
+    <row r="405" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5388,7 +5409,7 @@
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="1:6" ht="19.75" customHeight="1">
+    <row r="406" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5399,7 +5420,7 @@
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" spans="1:6" ht="19.75" customHeight="1">
+    <row r="407" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5410,7 +5431,7 @@
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" spans="1:6" ht="19.75" customHeight="1">
+    <row r="408" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5421,7 +5442,7 @@
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" spans="1:6" ht="19.75" customHeight="1">
+    <row r="409" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5432,7 +5453,7 @@
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="1:6" ht="19.75" customHeight="1">
+    <row r="410" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5443,7 +5464,7 @@
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" spans="1:6" ht="19.75" customHeight="1">
+    <row r="411" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5454,7 +5475,7 @@
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" spans="1:6" ht="19.75" customHeight="1">
+    <row r="412" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5465,7 +5486,7 @@
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" spans="1:6" ht="19.75" customHeight="1">
+    <row r="413" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5476,7 +5497,7 @@
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" spans="1:6" ht="19.75" customHeight="1">
+    <row r="414" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5487,7 +5508,7 @@
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="1:6" ht="19.75" customHeight="1">
+    <row r="415" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5498,7 +5519,7 @@
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" spans="1:6" ht="19.75" customHeight="1">
+    <row r="416" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5509,7 +5530,7 @@
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" spans="1:6" ht="19.75" customHeight="1">
+    <row r="417" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5520,7 +5541,7 @@
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="1:6" ht="19.75" customHeight="1">
+    <row r="418" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5531,7 +5552,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" spans="1:6" ht="19.75" customHeight="1">
+    <row r="419" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5542,7 +5563,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" spans="1:6" ht="19.75" customHeight="1">
+    <row r="420" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5553,7 +5574,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" spans="1:6" ht="19.75" customHeight="1">
+    <row r="421" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5564,7 +5585,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" spans="1:6" ht="19.75" customHeight="1">
+    <row r="422" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5575,7 +5596,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" spans="1:6" ht="19.75" customHeight="1">
+    <row r="423" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5586,7 +5607,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" spans="1:6" ht="19.75" customHeight="1">
+    <row r="424" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5597,7 +5618,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" spans="1:6" ht="19.75" customHeight="1">
+    <row r="425" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5608,7 +5629,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" spans="1:6" ht="19.75" customHeight="1">
+    <row r="426" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5619,7 +5640,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" spans="1:6" ht="19.75" customHeight="1">
+    <row r="427" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5630,7 +5651,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:6" ht="19.75" customHeight="1">
+    <row r="428" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5641,7 +5662,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" spans="1:6" ht="19.75" customHeight="1">
+    <row r="429" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5652,7 +5673,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" spans="1:6" ht="19.75" customHeight="1">
+    <row r="430" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5663,7 +5684,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" spans="1:6" ht="19.75" customHeight="1">
+    <row r="431" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5674,7 +5695,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" spans="1:6" ht="19.75" customHeight="1">
+    <row r="432" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5685,7 +5706,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" spans="1:6" ht="19.75" customHeight="1">
+    <row r="433" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5696,7 +5717,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" spans="1:6" ht="19.75" customHeight="1">
+    <row r="434" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5707,7 +5728,7 @@
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" spans="1:6" ht="19.75" customHeight="1">
+    <row r="435" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5718,7 +5739,7 @@
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" spans="1:6" ht="19.75" customHeight="1">
+    <row r="436" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5729,7 +5750,7 @@
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" spans="1:6" ht="19.75" customHeight="1">
+    <row r="437" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5740,7 +5761,7 @@
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" spans="1:6" ht="19.75" customHeight="1">
+    <row r="438" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5751,7 +5772,7 @@
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" spans="1:6" ht="19.75" customHeight="1">
+    <row r="439" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5762,7 +5783,7 @@
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" spans="1:6" ht="19.75" customHeight="1">
+    <row r="440" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5773,7 +5794,7 @@
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" spans="1:6" ht="19.75" customHeight="1">
+    <row r="441" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5784,7 +5805,7 @@
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" spans="1:6" ht="19.75" customHeight="1">
+    <row r="442" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5795,7 +5816,7 @@
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" spans="1:6" ht="19.75" customHeight="1">
+    <row r="443" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5806,7 +5827,7 @@
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="1:6" ht="19.75" customHeight="1">
+    <row r="444" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5817,7 +5838,7 @@
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" spans="1:6" ht="19.75" customHeight="1">
+    <row r="445" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5828,7 +5849,7 @@
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" spans="1:6" ht="19.75" customHeight="1">
+    <row r="446" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5839,7 +5860,7 @@
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" spans="1:6" ht="19.75" customHeight="1">
+    <row r="447" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5850,7 +5871,7 @@
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" spans="1:6" ht="19.75" customHeight="1">
+    <row r="448" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5861,7 +5882,7 @@
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" spans="1:6" ht="19.75" customHeight="1">
+    <row r="449" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5872,7 +5893,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="1:6" ht="19.75" customHeight="1">
+    <row r="450" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5883,7 +5904,7 @@
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" spans="1:6" ht="19.75" customHeight="1">
+    <row r="451" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5894,7 +5915,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="1:6" ht="19.75" customHeight="1">
+    <row r="452" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="str">
         <f t="shared" ref="A452:A500" si="7">IF(B452&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -5905,7 +5926,7 @@
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" spans="1:6" ht="19.75" customHeight="1">
+    <row r="453" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5916,7 +5937,7 @@
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" spans="1:6" ht="19.75" customHeight="1">
+    <row r="454" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5927,7 +5948,7 @@
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" spans="1:6" ht="19.75" customHeight="1">
+    <row r="455" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5938,7 +5959,7 @@
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" spans="1:6" ht="19.75" customHeight="1">
+    <row r="456" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5949,7 +5970,7 @@
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" spans="1:6" ht="19.75" customHeight="1">
+    <row r="457" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5960,7 +5981,7 @@
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" spans="1:6" ht="19.75" customHeight="1">
+    <row r="458" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5971,7 +5992,7 @@
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" spans="1:6" ht="19.75" customHeight="1">
+    <row r="459" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5982,7 +6003,7 @@
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" spans="1:6" ht="19.75" customHeight="1">
+    <row r="460" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5993,7 +6014,7 @@
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" spans="1:6" ht="19.75" customHeight="1">
+    <row r="461" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6004,7 +6025,7 @@
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" spans="1:6" ht="19.75" customHeight="1">
+    <row r="462" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6015,7 +6036,7 @@
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" spans="1:6" ht="19.75" customHeight="1">
+    <row r="463" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6026,7 +6047,7 @@
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" spans="1:6" ht="19.75" customHeight="1">
+    <row r="464" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6037,7 +6058,7 @@
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" spans="1:6" ht="19.75" customHeight="1">
+    <row r="465" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6048,7 +6069,7 @@
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" spans="1:6" ht="19.75" customHeight="1">
+    <row r="466" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6059,7 +6080,7 @@
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" spans="1:6" ht="19.75" customHeight="1">
+    <row r="467" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6070,7 +6091,7 @@
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" spans="1:6" ht="19.75" customHeight="1">
+    <row r="468" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6081,7 +6102,7 @@
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" spans="1:6" ht="19.75" customHeight="1">
+    <row r="469" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6092,7 +6113,7 @@
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" spans="1:6" ht="19.75" customHeight="1">
+    <row r="470" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6103,7 +6124,7 @@
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471" spans="1:6" ht="19.75" customHeight="1">
+    <row r="471" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6114,7 +6135,7 @@
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" spans="1:6" ht="19.75" customHeight="1">
+    <row r="472" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6125,7 +6146,7 @@
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="1:6" ht="19.75" customHeight="1">
+    <row r="473" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6136,7 +6157,7 @@
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="1:6" ht="19.75" customHeight="1">
+    <row r="474" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6147,7 +6168,7 @@
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" spans="1:6" ht="19.75" customHeight="1">
+    <row r="475" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6158,7 +6179,7 @@
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" spans="1:6" ht="19.75" customHeight="1">
+    <row r="476" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6169,7 +6190,7 @@
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477" spans="1:6" ht="19.75" customHeight="1">
+    <row r="477" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6180,7 +6201,7 @@
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" spans="1:6" ht="19.75" customHeight="1">
+    <row r="478" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6191,7 +6212,7 @@
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479" spans="1:6" ht="19.75" customHeight="1">
+    <row r="479" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6202,7 +6223,7 @@
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" spans="1:6" ht="19.75" customHeight="1">
+    <row r="480" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6213,7 +6234,7 @@
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481" spans="1:6" ht="19.75" customHeight="1">
+    <row r="481" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6224,7 +6245,7 @@
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" spans="1:6" ht="19.75" customHeight="1">
+    <row r="482" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6235,7 +6256,7 @@
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483" spans="1:6" ht="19.75" customHeight="1">
+    <row r="483" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6246,7 +6267,7 @@
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" spans="1:6" ht="19.75" customHeight="1">
+    <row r="484" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6257,7 +6278,7 @@
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" spans="1:6" ht="19.75" customHeight="1">
+    <row r="485" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6268,7 +6289,7 @@
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" spans="1:6" ht="19.75" customHeight="1">
+    <row r="486" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6279,7 +6300,7 @@
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487" spans="1:6" ht="19.75" customHeight="1">
+    <row r="487" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6290,7 +6311,7 @@
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" spans="1:6" ht="19.75" customHeight="1">
+    <row r="488" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6301,7 +6322,7 @@
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489" spans="1:6" ht="19.75" customHeight="1">
+    <row r="489" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6312,7 +6333,7 @@
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" spans="1:6" ht="19.75" customHeight="1">
+    <row r="490" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6323,7 +6344,7 @@
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491" spans="1:6" ht="19.75" customHeight="1">
+    <row r="491" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6334,7 +6355,7 @@
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" spans="1:6" ht="19.75" customHeight="1">
+    <row r="492" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6345,7 +6366,7 @@
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493" spans="1:6" ht="19.75" customHeight="1">
+    <row r="493" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6356,7 +6377,7 @@
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" spans="1:6" ht="19.75" customHeight="1">
+    <row r="494" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6367,7 +6388,7 @@
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" spans="1:6" ht="19.75" customHeight="1">
+    <row r="495" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6378,7 +6399,7 @@
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" spans="1:6" ht="19.75" customHeight="1">
+    <row r="496" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6389,7 +6410,7 @@
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497" spans="1:6" ht="19.75" customHeight="1">
+    <row r="497" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6400,7 +6421,7 @@
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="1:6" ht="19.75" customHeight="1">
+    <row r="498" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6411,7 +6432,7 @@
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499" spans="1:6" ht="19.75" customHeight="1">
+    <row r="499" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6422,7 +6443,7 @@
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" spans="1:6" ht="19.75" customHeight="1">
+    <row r="500" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6434,7 +6455,7 @@
       <c r="F500" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
@@ -6475,13 +6496,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6489,7 +6510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -6500,7 +6521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6511,7 +6532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -6519,7 +6540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -6527,12 +6548,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
